--- a/site/ValueSet-medme-appointment-type.xlsx
+++ b/site/ValueSet-medme-appointment-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.20</t>
+    <t>0.9.21</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T19:57:13-03:00</t>
+    <t>2025-11-24T17:38:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/ValueSet-medme-appointment-type.xlsx
+++ b/site/ValueSet-medme-appointment-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T17:38:48-05:00</t>
+    <t>2025-11-25T16:51:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/ValueSet-medme-appointment-type.xlsx
+++ b/site/ValueSet-medme-appointment-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.21</t>
+    <t>0.9.22</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T17:38:48-05:00</t>
+    <t>2025-11-25T17:07:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/ValueSet-medme-appointment-type.xlsx
+++ b/site/ValueSet-medme-appointment-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.22</t>
+    <t>0.9.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T17:07:48-05:00</t>
+    <t>2025-12-02T11:10:54-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/ValueSet-medme-appointment-type.xlsx
+++ b/site/ValueSet-medme-appointment-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.23</t>
+    <t>0.9.24</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T11:10:54-03:00</t>
+    <t>2025-12-08T15:17:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,7 +117,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://terminology.hl7.org/CodeSystem/v2-0276</t>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0276</t>
   </si>
 </sst>
 </file>

--- a/site/ValueSet-medme-appointment-type.xlsx
+++ b/site/ValueSet-medme-appointment-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.24</t>
+    <t>0.9.25</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T15:17:38-05:00</t>
+    <t>2025-12-10T09:54:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
